--- a/BBS掲示板ドキュメント.xlsx
+++ b/BBS掲示板ドキュメント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7725" activeTab="2"/>
+    <workbookView windowWidth="16035" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Web掲示板" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Web掲示板ドキュメント</t>
   </si>
@@ -66,16 +66,22 @@
   <si>
     <t>メッセージを確認したら、「掲示板へ」のリンクをクリックして投稿画面に戻ります。</t>
   </si>
+  <si>
+    <t>NGワード投稿禁止画面</t>
+  </si>
+  <si>
+    <t>NGワードを渡航しようとすると、エラーメッセージとして表示されます。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -132,6 +138,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -140,6 +168,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -147,8 +191,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +230,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,39 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -217,43 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -270,37 +276,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,121 +450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,16 +560,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,11 +591,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,24 +630,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,22 +655,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -673,121 +679,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,6 +1064,48 @@
         <a:xfrm>
           <a:off x="685800" y="4286250"/>
           <a:ext cx="3228975" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7200900"/>
+          <a:ext cx="3238500" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,7 +2029,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:G13"/>
+  <dimension ref="B4:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -1992,6 +2040,7 @@
     <col min="5" max="5" width="14.875"/>
   </cols>
   <sheetData>
+    <row r="4" ht="14.25"/>
     <row r="5" spans="2:7">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2119,10 +2168,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B36"/>
+  <dimension ref="B2:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2160,6 +2209,21 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
     </row>

--- a/BBS掲示板ドキュメント.xlsx
+++ b/BBS掲示板ドキュメント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16035" windowHeight="7695" activeTab="2"/>
+    <workbookView windowWidth="16035" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Web掲示板" sheetId="3" r:id="rId1"/>
@@ -79,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -130,6 +130,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -139,7 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +154,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,18 +191,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,13 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -207,6 +229,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,30 +245,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,20 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -276,181 +276,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +583,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,21 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -638,15 +647,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -655,145 +655,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,14 +1084,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図形 3"/>
+        <xdr:cNvPr id="5" name="図形 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1105,7 +1105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="7200900"/>
-          <a:ext cx="3238500" cy="942975"/>
+          <a:ext cx="4038600" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,8 +2170,8 @@
   <sheetPr/>
   <dimension ref="B2:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
